--- a/v1.0/SNM_v1.0.xlsx
+++ b/v1.0/SNM_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Program\StarCraft\Maps\SNM\All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP DevProgram\workspace\balance_patch\v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F57543C-8C94-4DD9-9228-73697D336731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF21B3C-D821-48FA-B779-9B45ADF0230E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2775" windowWidth="21600" windowHeight="15885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2340" windowWidth="21510" windowHeight="17145" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테란" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="282">
   <si>
     <t>유닛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1152,6 +1152,10 @@
   </si>
   <si>
     <t>바이오닉에게만 걸림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3305,7 +3309,7 @@
   <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3372,6 +3376,9 @@
     <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
+      <c r="E4" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
